--- a/요구사항명세서ashu.xlsx
+++ b/요구사항명세서ashu.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="222">
   <si>
     <t xml:space="preserve">이름 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -447,10 +447,6 @@
   </si>
   <si>
     <t xml:space="preserve">회원만 작성 가능 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 암호화 적용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -900,7 +896,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type: default 'general' secret : 'n'</t>
+    <t>비밀번호 암호화 적용(spring-security)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type: default 'qna' secret : 'n'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>super/admin/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -943,12 +947,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="16">
@@ -1134,7 +1144,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1177,9 +1187,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1192,55 +1199,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1261,17 +1292,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1576,70 +1598,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="22.75" style="1" customWidth="1"/>
+    <col min="1" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="5.625" style="1" customWidth="1"/>
+    <col min="7" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="30.125" style="23" customWidth="1"/>
+    <col min="13" max="13" width="5.25" style="1" customWidth="1"/>
     <col min="14" max="17" width="9" style="1"/>
     <col min="18" max="18" width="15.25" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42" t="s">
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="42"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
       <c r="G2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="4"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="2" t="s">
-        <v>109</v>
+        <v>219</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -1647,23 +1672,23 @@
       <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="7"/>
       <c r="G3" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="7"/>
+      <c r="M3" s="25"/>
       <c r="N3" s="5"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -1671,23 +1696,23 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="7"/>
+      <c r="M4" s="25"/>
       <c r="N4" s="5"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -1695,21 +1720,21 @@
       <c r="R4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="7"/>
+      <c r="M5" s="25"/>
       <c r="N5" s="5"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -1717,21 +1742,21 @@
       <c r="R5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="7"/>
+      <c r="M6" s="25"/>
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -1739,21 +1764,21 @@
       <c r="R6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="7"/>
+      <c r="M7" s="25"/>
       <c r="N7" s="5"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -1761,21 +1786,21 @@
       <c r="R7" s="7"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
       <c r="G8" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="25"/>
       <c r="N8" s="5"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -1783,21 +1808,21 @@
       <c r="R8" s="7"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
       <c r="G9" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="10"/>
+      <c r="M9" s="26"/>
       <c r="N9" s="8"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
@@ -1805,25 +1830,25 @@
       <c r="R9" s="10"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42" t="s">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="42"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
       <c r="G10" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="4"/>
+      <c r="M10" s="24"/>
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
@@ -1831,21 +1856,21 @@
       <c r="R10" s="4"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
       <c r="G11" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="7"/>
+      <c r="M11" s="25"/>
       <c r="N11" s="5"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -1853,23 +1878,23 @@
       <c r="R11" s="7"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
       <c r="G12" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="7"/>
+      <c r="M12" s="25"/>
       <c r="N12" s="5"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -1877,11 +1902,11 @@
       <c r="R12" s="7"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
@@ -1891,7 +1916,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="7"/>
+      <c r="M13" s="25"/>
       <c r="N13" s="5"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
@@ -1899,11 +1924,11 @@
       <c r="R13" s="7"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
@@ -1913,7 +1938,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="7"/>
+      <c r="M14" s="25"/>
       <c r="N14" s="5"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -1921,11 +1946,11 @@
       <c r="R14" s="7"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
@@ -1935,7 +1960,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="7"/>
+      <c r="M15" s="25"/>
       <c r="N15" s="5"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -1943,11 +1968,11 @@
       <c r="R15" s="7"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
@@ -1957,7 +1982,7 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="7"/>
+      <c r="M16" s="25"/>
       <c r="N16" s="5"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
@@ -1965,11 +1990,11 @@
       <c r="R16" s="7"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="7"/>
@@ -1979,7 +2004,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="7"/>
+      <c r="M17" s="25"/>
       <c r="N17" s="5"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
@@ -1987,9 +2012,9 @@
       <c r="R17" s="7"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9"/>
       <c r="F18" s="10"/>
@@ -1999,7 +2024,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="10"/>
+      <c r="M18" s="26"/>
       <c r="N18" s="8"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
@@ -2007,11 +2032,11 @@
       <c r="R18" s="10"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="42"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
@@ -2025,9 +2050,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="4"/>
+      <c r="M19" s="24"/>
       <c r="N19" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
@@ -2035,9 +2060,9 @@
       <c r="R19" s="4"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="5" t="s">
         <v>14</v>
       </c>
@@ -2051,9 +2076,9 @@
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
-      <c r="M20" s="7"/>
+      <c r="M20" s="25"/>
       <c r="N20" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -2061,9 +2086,9 @@
       <c r="R20" s="7"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
@@ -2075,9 +2100,9 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="7"/>
+      <c r="M21" s="25"/>
       <c r="N21" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
@@ -2085,9 +2110,9 @@
       <c r="R21" s="7"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="8"/>
       <c r="E22" s="9"/>
       <c r="F22" s="10"/>
@@ -2097,9 +2122,9 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="10"/>
+      <c r="M22" s="26"/>
       <c r="N22" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
@@ -2107,11 +2132,11 @@
       <c r="R22" s="10"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42" t="s">
+      <c r="A23" s="41"/>
+      <c r="B23" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="42"/>
+      <c r="C23" s="41"/>
       <c r="D23" s="2" t="s">
         <v>19</v>
       </c>
@@ -2125,7 +2150,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="4"/>
+      <c r="M23" s="24"/>
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -2133,9 +2158,9 @@
       <c r="R23" s="4"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
       <c r="F24" s="7"/>
@@ -2147,7 +2172,7 @@
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="7"/>
+      <c r="M24" s="25"/>
       <c r="N24" s="5"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
@@ -2155,9 +2180,9 @@
       <c r="R24" s="7"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
       <c r="F25" s="7"/>
@@ -2169,7 +2194,7 @@
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="7"/>
+      <c r="M25" s="25"/>
       <c r="N25" s="5"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
@@ -2177,9 +2202,9 @@
       <c r="R25" s="7"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
@@ -2191,7 +2216,7 @@
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="7"/>
+      <c r="M26" s="25"/>
       <c r="N26" s="5"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
@@ -2199,9 +2224,9 @@
       <c r="R26" s="7"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
       <c r="F27" s="7"/>
@@ -2213,7 +2238,7 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="7"/>
+      <c r="M27" s="25"/>
       <c r="N27" s="5"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
@@ -2221,9 +2246,9 @@
       <c r="R27" s="7"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
       <c r="D28" s="8"/>
       <c r="E28" s="9"/>
       <c r="F28" s="10"/>
@@ -2235,7 +2260,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
-      <c r="M28" s="10"/>
+      <c r="M28" s="26"/>
       <c r="N28" s="8"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
@@ -2243,11 +2268,11 @@
       <c r="R28" s="10"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42" t="s">
+      <c r="A29" s="41"/>
+      <c r="B29" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="42"/>
+      <c r="C29" s="41"/>
       <c r="D29" s="2" t="s">
         <v>26</v>
       </c>
@@ -2261,7 +2286,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="4"/>
+      <c r="M29" s="24"/>
       <c r="N29" s="2"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -2269,9 +2294,9 @@
       <c r="R29" s="4"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
       <c r="D30" s="5"/>
       <c r="E30" s="6"/>
       <c r="F30" s="7"/>
@@ -2283,7 +2308,7 @@
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="7"/>
+      <c r="M30" s="25"/>
       <c r="N30" s="5"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
@@ -2291,9 +2316,9 @@
       <c r="R30" s="7"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
       <c r="D31" s="5"/>
       <c r="E31" s="6"/>
       <c r="F31" s="7"/>
@@ -2303,7 +2328,7 @@
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="7"/>
+      <c r="M31" s="25"/>
       <c r="N31" s="5"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
@@ -2311,9 +2336,9 @@
       <c r="R31" s="7"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
       <c r="D32" s="5"/>
       <c r="E32" s="6"/>
       <c r="F32" s="7"/>
@@ -2323,7 +2348,7 @@
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="7"/>
+      <c r="M32" s="25"/>
       <c r="N32" s="5"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
@@ -2331,9 +2356,9 @@
       <c r="R32" s="7"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
       <c r="D33" s="8"/>
       <c r="E33" s="9"/>
       <c r="F33" s="10"/>
@@ -2343,7 +2368,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
-      <c r="M33" s="10"/>
+      <c r="M33" s="26"/>
       <c r="N33" s="8"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
@@ -2351,16 +2376,16 @@
       <c r="R33" s="10"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="24" t="s">
+      <c r="A34" s="15"/>
+      <c r="B34" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="24" t="s">
+      <c r="C34" s="28"/>
+      <c r="D34" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="25"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="28"/>
       <c r="G34" s="2" t="s">
         <v>33</v>
       </c>
@@ -2369,9 +2394,9 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
-      <c r="M34" s="4"/>
+      <c r="M34" s="24"/>
       <c r="N34" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
@@ -2379,33 +2404,35 @@
       <c r="R34" s="4"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="32"/>
       <c r="G35" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="8"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
       <c r="R35" s="10"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="33"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="8" t="s">
         <v>32</v>
       </c>
@@ -2419,7 +2446,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="10"/>
+      <c r="M36" s="26"/>
       <c r="N36" s="8"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
@@ -2427,11 +2454,11 @@
       <c r="R36" s="10"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" s="33"/>
-      <c r="B37" s="24" t="s">
+      <c r="A37" s="36"/>
+      <c r="B37" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="25"/>
+      <c r="C37" s="28"/>
       <c r="D37" s="2" t="s">
         <v>35</v>
       </c>
@@ -2445,19 +2472,19 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="25"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="28"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38" s="33"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="27"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="30"/>
       <c r="D38" s="5" t="s">
         <v>36</v>
       </c>
@@ -2471,17 +2498,17 @@
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="27"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="30"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" s="33"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="27"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="30"/>
       <c r="D39" s="5" t="s">
         <v>37</v>
       </c>
@@ -2495,17 +2522,17 @@
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="27"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="30"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" s="33"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="27"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="30"/>
       <c r="D40" s="5" t="s">
         <v>38</v>
       </c>
@@ -2519,17 +2546,17 @@
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35"/>
-      <c r="R40" s="27"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="30"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" s="33"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="29"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="32"/>
       <c r="D41" s="8" t="s">
         <v>39</v>
       </c>
@@ -2543,33 +2570,33 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="31"/>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="29"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="32"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" s="33"/>
-      <c r="B42" s="24" t="s">
+      <c r="A42" s="36"/>
+      <c r="B42" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="25"/>
+      <c r="C42" s="28"/>
       <c r="D42" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="4"/>
       <c r="G42" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
-      <c r="M42" s="4"/>
+      <c r="M42" s="24"/>
       <c r="N42" s="2" t="s">
         <v>48</v>
       </c>
@@ -2579,23 +2606,23 @@
       <c r="R42" s="4"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A43" s="33"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="27"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="30"/>
       <c r="D43" s="5"/>
       <c r="E43" s="6"/>
       <c r="F43" s="7"/>
       <c r="G43" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
-      <c r="M43" s="7"/>
+      <c r="M43" s="25"/>
       <c r="N43" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
@@ -2603,21 +2630,21 @@
       <c r="R43" s="7"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A44" s="34"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="29"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="32"/>
       <c r="D44" s="8"/>
       <c r="E44" s="9"/>
       <c r="F44" s="10"/>
       <c r="G44" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
-      <c r="M44" s="10"/>
+      <c r="M44" s="26"/>
       <c r="N44" s="8" t="s">
         <v>220</v>
       </c>
@@ -2627,18 +2654,18 @@
       <c r="R44" s="10"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="24" t="s">
+      <c r="C45" s="28"/>
+      <c r="D45" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="25"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="28"/>
       <c r="G45" s="2" t="s">
         <v>52</v>
       </c>
@@ -2647,7 +2674,7 @@
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
-      <c r="M45" s="4"/>
+      <c r="M45" s="24"/>
       <c r="N45" s="2" t="s">
         <v>55</v>
       </c>
@@ -2657,12 +2684,12 @@
       <c r="R45" s="4"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" s="33"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="27"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="30"/>
       <c r="G46" s="5" t="s">
         <v>53</v>
       </c>
@@ -2671,7 +2698,7 @@
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
-      <c r="M46" s="7"/>
+      <c r="M46" s="25"/>
       <c r="N46" s="5" t="s">
         <v>56</v>
       </c>
@@ -2681,12 +2708,12 @@
       <c r="R46" s="7"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47" s="33"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="27"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="30"/>
       <c r="G47" s="5" t="s">
         <v>54</v>
       </c>
@@ -2695,9 +2722,9 @@
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
-      <c r="M47" s="7"/>
+      <c r="M47" s="25"/>
       <c r="N47" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
@@ -2705,21 +2732,21 @@
       <c r="R47" s="7"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="33"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="27"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="30"/>
       <c r="G48" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
-      <c r="M48" s="7"/>
+      <c r="M48" s="25"/>
       <c r="N48" s="5"/>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
@@ -2727,21 +2754,21 @@
       <c r="R48" s="7"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A49" s="33"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="29"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="32"/>
       <c r="G49" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
-      <c r="M49" s="10"/>
+      <c r="M49" s="26"/>
       <c r="N49" s="8"/>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
@@ -2749,16 +2776,16 @@
       <c r="R49" s="10"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A50" s="33"/>
-      <c r="B50" s="24" t="s">
+      <c r="A50" s="36"/>
+      <c r="B50" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="25"/>
-      <c r="D50" s="24" t="s">
+      <c r="C50" s="28"/>
+      <c r="D50" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E50" s="30"/>
-      <c r="F50" s="25"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="28"/>
       <c r="G50" s="2" t="s">
         <v>59</v>
       </c>
@@ -2767,7 +2794,7 @@
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
-      <c r="M50" s="4"/>
+      <c r="M50" s="24"/>
       <c r="N50" s="2" t="s">
         <v>68</v>
       </c>
@@ -2777,19 +2804,19 @@
       <c r="R50" s="4"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A51" s="33"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="29"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="32"/>
       <c r="G51" s="8"/>
       <c r="H51" s="6"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
-      <c r="M51" s="10"/>
+      <c r="M51" s="26"/>
       <c r="N51" s="8"/>
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
@@ -2797,25 +2824,25 @@
       <c r="R51" s="10"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A52" s="33"/>
-      <c r="B52" s="43" t="s">
+      <c r="A52" s="36"/>
+      <c r="B52" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="C52" s="40"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="C52" s="45"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="H52" s="13"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
-      <c r="M52" s="7"/>
+      <c r="M52" s="25"/>
       <c r="N52" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
@@ -2823,11 +2850,11 @@
       <c r="R52" s="7"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A53" s="33"/>
-      <c r="B53" s="24" t="s">
+      <c r="A53" s="36"/>
+      <c r="B53" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="25"/>
+      <c r="C53" s="28"/>
       <c r="D53" s="2" t="s">
         <v>62</v>
       </c>
@@ -2841,7 +2868,7 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
-      <c r="M53" s="4"/>
+      <c r="M53" s="24"/>
       <c r="N53" s="2" t="s">
         <v>68</v>
       </c>
@@ -2851,9 +2878,9 @@
       <c r="R53" s="4"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A54" s="33"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="27"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="30"/>
       <c r="D54" s="5" t="s">
         <v>63</v>
       </c>
@@ -2867,7 +2894,7 @@
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
-      <c r="M54" s="7"/>
+      <c r="M54" s="25"/>
       <c r="N54" s="5"/>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
@@ -2875,9 +2902,9 @@
       <c r="R54" s="7"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A55" s="33"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="29"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="32"/>
       <c r="D55" s="8" t="s">
         <v>64</v>
       </c>
@@ -2891,7 +2918,7 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
-      <c r="M55" s="10"/>
+      <c r="M55" s="26"/>
       <c r="N55" s="8"/>
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
@@ -2899,11 +2926,11 @@
       <c r="R55" s="10"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A56" s="33"/>
-      <c r="B56" s="24" t="s">
+      <c r="A56" s="36"/>
+      <c r="B56" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="25"/>
+      <c r="C56" s="28"/>
       <c r="D56" s="2" t="s">
         <v>70</v>
       </c>
@@ -2917,7 +2944,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-      <c r="M56" s="4"/>
+      <c r="M56" s="24"/>
       <c r="N56" s="2" t="s">
         <v>68</v>
       </c>
@@ -2927,9 +2954,9 @@
       <c r="R56" s="4"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A57" s="33"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="27"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="30"/>
       <c r="D57" s="5" t="s">
         <v>71</v>
       </c>
@@ -2943,7 +2970,7 @@
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
-      <c r="M57" s="7"/>
+      <c r="M57" s="25"/>
       <c r="N57" s="5"/>
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
@@ -2951,9 +2978,9 @@
       <c r="R57" s="7"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A58" s="33"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="27"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="30"/>
       <c r="D58" s="5" t="s">
         <v>72</v>
       </c>
@@ -2967,7 +2994,7 @@
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
-      <c r="M58" s="7"/>
+      <c r="M58" s="25"/>
       <c r="N58" s="5"/>
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
@@ -2975,9 +3002,9 @@
       <c r="R58" s="7"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A59" s="33"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="29"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="32"/>
       <c r="D59" s="8" t="s">
         <v>73</v>
       </c>
@@ -2991,7 +3018,7 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
-      <c r="M59" s="10"/>
+      <c r="M59" s="26"/>
       <c r="N59" s="8"/>
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
@@ -2999,11 +3026,11 @@
       <c r="R59" s="10"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A60" s="33"/>
-      <c r="B60" s="36" t="s">
+      <c r="A60" s="36"/>
+      <c r="B60" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="37"/>
+      <c r="C60" s="44"/>
       <c r="D60" s="2" t="s">
         <v>78</v>
       </c>
@@ -3017,7 +3044,7 @@
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
-      <c r="M60" s="4"/>
+      <c r="M60" s="24"/>
       <c r="N60" s="2" t="s">
         <v>60</v>
       </c>
@@ -3027,9 +3054,9 @@
       <c r="R60" s="4"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A61" s="33"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="39"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="46"/>
       <c r="D61" s="5" t="s">
         <v>82</v>
       </c>
@@ -3043,7 +3070,7 @@
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
-      <c r="M61" s="7"/>
+      <c r="M61" s="25"/>
       <c r="N61" s="5"/>
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
@@ -3051,9 +3078,9 @@
       <c r="R61" s="7"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A62" s="33"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="39"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="46"/>
       <c r="D62" s="5"/>
       <c r="E62" s="6"/>
       <c r="F62" s="7"/>
@@ -3065,7 +3092,7 @@
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
-      <c r="M62" s="7"/>
+      <c r="M62" s="25"/>
       <c r="N62" s="5"/>
       <c r="O62" s="6"/>
       <c r="P62" s="6"/>
@@ -3073,9 +3100,9 @@
       <c r="R62" s="7"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A63" s="33"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="41"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="48"/>
       <c r="D63" s="8"/>
       <c r="E63" s="9"/>
       <c r="F63" s="10"/>
@@ -3087,7 +3114,7 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
-      <c r="M63" s="10"/>
+      <c r="M63" s="26"/>
       <c r="N63" s="8"/>
       <c r="O63" s="9"/>
       <c r="P63" s="9"/>
@@ -3095,25 +3122,25 @@
       <c r="R63" s="10"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A64" s="33"/>
-      <c r="B64" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C64" s="25"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" s="28"/>
       <c r="D64" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="4"/>
       <c r="G64" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
-      <c r="M64" s="4"/>
+      <c r="M64" s="24"/>
       <c r="N64" s="2" t="s">
         <v>103</v>
       </c>
@@ -3123,9 +3150,9 @@
       <c r="R64" s="4"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A65" s="33"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="27"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="30"/>
       <c r="D65" s="5"/>
       <c r="E65" s="6"/>
       <c r="F65" s="7"/>
@@ -3137,7 +3164,7 @@
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
-      <c r="M65" s="7"/>
+      <c r="M65" s="25"/>
       <c r="N65" s="5" t="s">
         <v>104</v>
       </c>
@@ -3147,23 +3174,23 @@
       <c r="R65" s="7"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A66" s="33"/>
+      <c r="A66" s="36"/>
       <c r="B66" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="5"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7"/>
       <c r="G66" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
-      <c r="M66" s="7"/>
+      <c r="M66" s="25"/>
       <c r="N66" s="5" t="s">
         <v>105</v>
       </c>
@@ -3173,23 +3200,23 @@
       <c r="R66" s="7"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A67" s="33"/>
+      <c r="A67" s="36"/>
       <c r="B67" s="5"/>
       <c r="C67" s="7"/>
       <c r="D67" s="5"/>
       <c r="E67" s="6"/>
       <c r="F67" s="7"/>
       <c r="G67" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
-      <c r="M67" s="7"/>
+      <c r="M67" s="25"/>
       <c r="N67" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O67" s="6"/>
       <c r="P67" s="6"/>
@@ -3197,23 +3224,23 @@
       <c r="R67" s="7"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A68" s="33"/>
+      <c r="A68" s="36"/>
       <c r="B68" s="8"/>
       <c r="C68" s="10"/>
       <c r="D68" s="8"/>
       <c r="E68" s="9"/>
       <c r="F68" s="10"/>
       <c r="G68" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
-      <c r="M68" s="10"/>
+      <c r="M68" s="26"/>
       <c r="N68" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O68" s="9"/>
       <c r="P68" s="9"/>
@@ -3221,27 +3248,27 @@
       <c r="R68" s="10"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A69" s="33"/>
-      <c r="B69" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C69" s="25"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="28"/>
       <c r="D69" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="7"/>
       <c r="G69" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H69" s="3"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
-      <c r="M69" s="7"/>
+      <c r="M69" s="25"/>
       <c r="N69" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
@@ -3249,23 +3276,23 @@
       <c r="R69" s="7"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A70" s="33"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="27"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="30"/>
       <c r="D70" s="5"/>
       <c r="E70" s="6"/>
       <c r="F70" s="7"/>
       <c r="G70" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
-      <c r="M70" s="7"/>
+      <c r="M70" s="25"/>
       <c r="N70" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
@@ -3273,25 +3300,25 @@
       <c r="R70" s="7"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A71" s="33"/>
+      <c r="A71" s="36"/>
       <c r="B71" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="5"/>
       <c r="E71" s="6"/>
       <c r="F71" s="7"/>
       <c r="G71" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
-      <c r="M71" s="7"/>
+      <c r="M71" s="25"/>
       <c r="N71" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
@@ -3299,11 +3326,11 @@
       <c r="R71" s="7"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A72" s="33"/>
-      <c r="B72" s="24" t="s">
+      <c r="A72" s="36"/>
+      <c r="B72" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C72" s="25"/>
+      <c r="C72" s="28"/>
       <c r="D72" s="2" t="s">
         <v>84</v>
       </c>
@@ -3317,7 +3344,7 @@
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
-      <c r="M72" s="4"/>
+      <c r="M72" s="24"/>
       <c r="N72" s="2" t="s">
         <v>102</v>
       </c>
@@ -3327,9 +3354,9 @@
       <c r="R72" s="4"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A73" s="33"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="27"/>
+      <c r="A73" s="36"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="30"/>
       <c r="D73" s="5" t="s">
         <v>85</v>
       </c>
@@ -3343,9 +3370,9 @@
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
-      <c r="M73" s="7"/>
+      <c r="M73" s="25"/>
       <c r="N73" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
@@ -3353,9 +3380,9 @@
       <c r="R73" s="7"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A74" s="33"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="27"/>
+      <c r="A74" s="36"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="30"/>
       <c r="D74" s="5"/>
       <c r="E74" s="6"/>
       <c r="F74" s="7"/>
@@ -3367,7 +3394,7 @@
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
-      <c r="M74" s="7"/>
+      <c r="M74" s="25"/>
       <c r="N74" s="5"/>
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
@@ -3375,9 +3402,9 @@
       <c r="R74" s="7"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A75" s="33"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="27"/>
+      <c r="A75" s="36"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="30"/>
       <c r="D75" s="5"/>
       <c r="E75" s="6"/>
       <c r="F75" s="7"/>
@@ -3389,7 +3416,7 @@
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
-      <c r="M75" s="7"/>
+      <c r="M75" s="25"/>
       <c r="N75" s="5"/>
       <c r="O75" s="6"/>
       <c r="P75" s="6"/>
@@ -3397,9 +3424,9 @@
       <c r="R75" s="7"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A76" s="33"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="29"/>
+      <c r="A76" s="36"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="32"/>
       <c r="D76" s="8"/>
       <c r="E76" s="9"/>
       <c r="F76" s="10"/>
@@ -3409,7 +3436,7 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
-      <c r="M76" s="10"/>
+      <c r="M76" s="26"/>
       <c r="N76" s="8"/>
       <c r="O76" s="9"/>
       <c r="P76" s="9"/>
@@ -3417,11 +3444,11 @@
       <c r="R76" s="10"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A77" s="33"/>
-      <c r="B77" s="24" t="s">
+      <c r="A77" s="36"/>
+      <c r="B77" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="25"/>
+      <c r="C77" s="28"/>
       <c r="D77" s="2" t="s">
         <v>86</v>
       </c>
@@ -3435,7 +3462,7 @@
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
-      <c r="M77" s="4"/>
+      <c r="M77" s="24"/>
       <c r="N77" s="2" t="s">
         <v>106</v>
       </c>
@@ -3445,9 +3472,9 @@
       <c r="R77" s="4"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A78" s="33"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="29"/>
+      <c r="A78" s="36"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="32"/>
       <c r="D78" s="8" t="s">
         <v>87</v>
       </c>
@@ -3461,7 +3488,7 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
-      <c r="M78" s="10"/>
+      <c r="M78" s="26"/>
       <c r="N78" s="8"/>
       <c r="O78" s="9"/>
       <c r="P78" s="9"/>
@@ -3469,11 +3496,11 @@
       <c r="R78" s="10"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A79" s="33"/>
-      <c r="B79" s="24" t="s">
+      <c r="A79" s="36"/>
+      <c r="B79" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C79" s="25"/>
+      <c r="C79" s="28"/>
       <c r="D79" s="2" t="s">
         <v>88</v>
       </c>
@@ -3487,7 +3514,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
-      <c r="M79" s="4"/>
+      <c r="M79" s="24"/>
       <c r="N79" s="2" t="s">
         <v>107</v>
       </c>
@@ -3497,9 +3524,9 @@
       <c r="R79" s="4"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A80" s="34"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="29"/>
+      <c r="A80" s="37"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="32"/>
       <c r="D80" s="8"/>
       <c r="E80" s="9"/>
       <c r="F80" s="10"/>
@@ -3511,7 +3538,7 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
-      <c r="M80" s="10"/>
+      <c r="M80" s="26"/>
       <c r="N80" s="8" t="s">
         <v>108</v>
       </c>
@@ -3521,25 +3548,25 @@
       <c r="R80" s="10"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A81" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="B81" s="24"/>
-      <c r="C81" s="25"/>
+      <c r="A81" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" s="27"/>
+      <c r="C81" s="28"/>
       <c r="D81" s="2"/>
       <c r="E81" s="3"/>
       <c r="F81" s="4"/>
       <c r="G81" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
-      <c r="M81" s="4"/>
+      <c r="M81" s="24"/>
       <c r="N81" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
@@ -3547,21 +3574,21 @@
       <c r="R81" s="4"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A82" s="33"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="27"/>
+      <c r="A82" s="36"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="30"/>
       <c r="D82" s="5"/>
       <c r="E82" s="6"/>
       <c r="F82" s="7"/>
       <c r="G82" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
-      <c r="M82" s="7"/>
+      <c r="M82" s="25"/>
       <c r="N82" s="5"/>
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
@@ -3569,9 +3596,9 @@
       <c r="R82" s="7"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A83" s="34"/>
-      <c r="B83" s="28"/>
-      <c r="C83" s="29"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="32"/>
       <c r="D83" s="8"/>
       <c r="E83" s="9"/>
       <c r="F83" s="10"/>
@@ -3581,7 +3608,7 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
-      <c r="M83" s="10"/>
+      <c r="M83" s="26"/>
       <c r="N83" s="8"/>
       <c r="O83" s="9"/>
       <c r="P83" s="9"/>
@@ -3589,53 +3616,53 @@
       <c r="R83" s="10"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A84" s="32" t="s">
+      <c r="A84" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B84" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B84" s="24" t="s">
+      <c r="C84" s="28"/>
+      <c r="D84" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="C84" s="25"/>
-      <c r="D84" s="43" t="s">
+      <c r="E84" s="42"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="H84" s="13"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="39"/>
+      <c r="O84" s="42"/>
+      <c r="P84" s="42"/>
+      <c r="Q84" s="42"/>
+      <c r="R84" s="40"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A85" s="36"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="E84" s="44"/>
-      <c r="F84" s="45"/>
-      <c r="G84" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="H84" s="13"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="18"/>
-      <c r="L84" s="18"/>
-      <c r="M84" s="19"/>
-      <c r="N84" s="43"/>
-      <c r="O84" s="44"/>
-      <c r="P84" s="44"/>
-      <c r="Q84" s="44"/>
-      <c r="R84" s="45"/>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A85" s="33"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="24" t="s">
+      <c r="E85" s="33"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E85" s="30"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H85" s="15"/>
+      <c r="H85" s="14"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
-      <c r="M85" s="4"/>
+      <c r="M85" s="24"/>
       <c r="N85" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
@@ -3643,19 +3670,19 @@
       <c r="R85" s="4"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A86" s="33"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="29"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="32"/>
       <c r="G86" s="8"/>
       <c r="H86" s="6"/>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c r="L86" s="9"/>
-      <c r="M86" s="10"/>
+      <c r="M86" s="26"/>
       <c r="N86" s="8"/>
       <c r="O86" s="9"/>
       <c r="P86" s="9"/>
@@ -3663,25 +3690,25 @@
       <c r="R86" s="10"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A87" s="33"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="E87" s="30"/>
-      <c r="F87" s="25"/>
+      <c r="A87" s="36"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="E87" s="33"/>
+      <c r="F87" s="28"/>
       <c r="G87" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
-      <c r="M87" s="4"/>
+      <c r="M87" s="24"/>
       <c r="N87" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
@@ -3689,21 +3716,21 @@
       <c r="R87" s="4"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A88" s="33"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="27"/>
+      <c r="A88" s="36"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="38"/>
+      <c r="F88" s="30"/>
       <c r="G88" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
-      <c r="M88" s="7"/>
+      <c r="M88" s="25"/>
       <c r="N88" s="5"/>
       <c r="O88" s="6"/>
       <c r="P88" s="6"/>
@@ -3711,19 +3738,19 @@
       <c r="R88" s="7"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A89" s="33"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="31"/>
-      <c r="F89" s="29"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="32"/>
       <c r="G89" s="8"/>
       <c r="H89" s="6"/>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
-      <c r="M89" s="10"/>
+      <c r="M89" s="26"/>
       <c r="N89" s="8"/>
       <c r="O89" s="9"/>
       <c r="P89" s="9"/>
@@ -3731,137 +3758,137 @@
       <c r="R89" s="10"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A90" s="33"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="43" t="s">
+      <c r="A90" s="36"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E90" s="42"/>
+      <c r="F90" s="40"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="22"/>
+      <c r="N90" s="39"/>
+      <c r="O90" s="42"/>
+      <c r="P90" s="42"/>
+      <c r="Q90" s="42"/>
+      <c r="R90" s="40"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A91" s="36"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="E90" s="44"/>
-      <c r="F90" s="45"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="18"/>
-      <c r="M90" s="19"/>
-      <c r="N90" s="43"/>
-      <c r="O90" s="44"/>
-      <c r="P90" s="44"/>
-      <c r="Q90" s="44"/>
-      <c r="R90" s="45"/>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A91" s="33"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="E91" s="44"/>
-      <c r="F91" s="45"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="40"/>
       <c r="G91" s="12"/>
-      <c r="H91" s="18"/>
+      <c r="H91" s="17"/>
       <c r="I91" s="13"/>
       <c r="J91" s="13"/>
       <c r="K91" s="13"/>
       <c r="L91" s="13"/>
-      <c r="M91" s="14"/>
-      <c r="N91" s="43"/>
-      <c r="O91" s="44"/>
-      <c r="P91" s="44"/>
-      <c r="Q91" s="44"/>
-      <c r="R91" s="45"/>
+      <c r="M91" s="21"/>
+      <c r="N91" s="39"/>
+      <c r="O91" s="42"/>
+      <c r="P91" s="42"/>
+      <c r="Q91" s="42"/>
+      <c r="R91" s="40"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A92" s="33"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="43" t="s">
+      <c r="A92" s="36"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="E92" s="42"/>
+      <c r="F92" s="40"/>
+      <c r="G92" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="E92" s="44"/>
-      <c r="F92" s="45"/>
-      <c r="G92" s="17" t="s">
+      <c r="H92" s="13"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="17"/>
+      <c r="M92" s="22"/>
+      <c r="N92" s="39"/>
+      <c r="O92" s="42"/>
+      <c r="P92" s="42"/>
+      <c r="Q92" s="42"/>
+      <c r="R92" s="40"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A93" s="36"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="H92" s="13"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="18"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="19"/>
-      <c r="N92" s="43"/>
-      <c r="O92" s="44"/>
-      <c r="P92" s="44"/>
-      <c r="Q92" s="44"/>
-      <c r="R92" s="45"/>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A93" s="33"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="43" t="s">
+      <c r="E93" s="42"/>
+      <c r="F93" s="40"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="22"/>
+      <c r="N93" s="39"/>
+      <c r="O93" s="42"/>
+      <c r="P93" s="42"/>
+      <c r="Q93" s="42"/>
+      <c r="R93" s="40"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A94" s="36"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="E93" s="44"/>
-      <c r="F93" s="45"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="18"/>
-      <c r="I93" s="18"/>
-      <c r="J93" s="18"/>
-      <c r="K93" s="18"/>
-      <c r="L93" s="18"/>
-      <c r="M93" s="19"/>
-      <c r="N93" s="43"/>
-      <c r="O93" s="44"/>
-      <c r="P93" s="44"/>
-      <c r="Q93" s="44"/>
-      <c r="R93" s="45"/>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A94" s="33"/>
-      <c r="B94" s="28"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="43" t="s">
+      <c r="E94" s="42"/>
+      <c r="F94" s="40"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="17"/>
+      <c r="M94" s="22"/>
+      <c r="N94" s="39"/>
+      <c r="O94" s="42"/>
+      <c r="P94" s="42"/>
+      <c r="Q94" s="42"/>
+      <c r="R94" s="40"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A95" s="36"/>
+      <c r="B95" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="E94" s="44"/>
-      <c r="F94" s="45"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
-      <c r="J94" s="18"/>
-      <c r="K94" s="18"/>
-      <c r="L94" s="18"/>
-      <c r="M94" s="19"/>
-      <c r="N94" s="43"/>
-      <c r="O94" s="44"/>
-      <c r="P94" s="44"/>
-      <c r="Q94" s="44"/>
-      <c r="R94" s="45"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A95" s="33"/>
-      <c r="B95" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="2"/>
       <c r="E95" s="3"/>
       <c r="F95" s="4"/>
       <c r="G95" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H95" s="15"/>
+        <v>151</v>
+      </c>
+      <c r="H95" s="14"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-      <c r="M95" s="4"/>
+      <c r="M95" s="24"/>
       <c r="N95" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
@@ -3869,21 +3896,21 @@
       <c r="R95" s="4"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A96" s="33"/>
+      <c r="A96" s="36"/>
       <c r="B96" s="5"/>
       <c r="C96" s="7"/>
       <c r="D96" s="5"/>
       <c r="E96" s="6"/>
       <c r="F96" s="7"/>
       <c r="G96" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="H96" s="21"/>
+        <v>208</v>
+      </c>
+      <c r="H96" s="19"/>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
-      <c r="M96" s="7"/>
+      <c r="M96" s="25"/>
       <c r="N96" s="5"/>
       <c r="O96" s="6"/>
       <c r="P96" s="6"/>
@@ -3891,23 +3918,23 @@
       <c r="R96" s="7"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A97" s="33"/>
+      <c r="A97" s="36"/>
       <c r="B97" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="5"/>
       <c r="E97" s="6"/>
       <c r="F97" s="7"/>
       <c r="G97" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
-      <c r="M97" s="7"/>
+      <c r="M97" s="25"/>
       <c r="N97" s="5"/>
       <c r="O97" s="6"/>
       <c r="P97" s="6"/>
@@ -3915,23 +3942,23 @@
       <c r="R97" s="7"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A98" s="33"/>
+      <c r="A98" s="36"/>
       <c r="B98" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C98" s="10"/>
       <c r="D98" s="8"/>
       <c r="E98" s="9"/>
       <c r="F98" s="10"/>
       <c r="G98" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H98" s="6"/>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
-      <c r="M98" s="10"/>
+      <c r="M98" s="26"/>
       <c r="N98" s="8"/>
       <c r="O98" s="9"/>
       <c r="P98" s="9"/>
@@ -3939,27 +3966,27 @@
       <c r="R98" s="10"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A99" s="33"/>
-      <c r="B99" s="24" t="s">
+      <c r="A99" s="36"/>
+      <c r="B99" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C99" s="28"/>
+      <c r="D99" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C99" s="25"/>
-      <c r="D99" s="24" t="s">
+      <c r="E99" s="33"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="E99" s="30"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
-      <c r="M99" s="4"/>
+      <c r="M99" s="24"/>
       <c r="N99" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
@@ -3967,19 +3994,19 @@
       <c r="R99" s="4"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A100" s="33"/>
-      <c r="B100" s="28"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="28"/>
-      <c r="E100" s="31"/>
-      <c r="F100" s="29"/>
+      <c r="A100" s="36"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="32"/>
       <c r="G100" s="8"/>
       <c r="H100" s="6"/>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
-      <c r="M100" s="10"/>
+      <c r="M100" s="26"/>
       <c r="N100" s="8"/>
       <c r="O100" s="9"/>
       <c r="P100" s="9"/>
@@ -3987,25 +4014,25 @@
       <c r="R100" s="10"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A101" s="33"/>
-      <c r="B101" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C101" s="25"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="30"/>
-      <c r="F101" s="25"/>
+      <c r="A101" s="36"/>
+      <c r="B101" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C101" s="28"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="33"/>
+      <c r="F101" s="28"/>
       <c r="G101" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
-      <c r="M101" s="4"/>
+      <c r="M101" s="24"/>
       <c r="N101" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
@@ -4013,23 +4040,23 @@
       <c r="R101" s="4"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A102" s="33"/>
-      <c r="B102" s="26"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="26"/>
-      <c r="E102" s="35"/>
-      <c r="F102" s="27"/>
+      <c r="A102" s="36"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="38"/>
+      <c r="F102" s="30"/>
       <c r="G102" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
       <c r="K102" s="6"/>
       <c r="L102" s="6"/>
-      <c r="M102" s="7"/>
+      <c r="M102" s="25"/>
       <c r="N102" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O102" s="6"/>
       <c r="P102" s="6"/>
@@ -4037,21 +4064,21 @@
       <c r="R102" s="7"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="33"/>
-      <c r="B103" s="28"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="28"/>
-      <c r="E103" s="31"/>
-      <c r="F103" s="29"/>
+      <c r="A103" s="36"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="34"/>
+      <c r="F103" s="32"/>
       <c r="G103" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H103" s="6"/>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c r="L103" s="9"/>
-      <c r="M103" s="10"/>
+      <c r="M103" s="26"/>
       <c r="N103" s="8"/>
       <c r="O103" s="9"/>
       <c r="P103" s="9"/>
@@ -4059,27 +4086,27 @@
       <c r="R103" s="10"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A104" s="33"/>
-      <c r="B104" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C104" s="25"/>
-      <c r="D104" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="E104" s="30"/>
-      <c r="F104" s="25"/>
+      <c r="A104" s="36"/>
+      <c r="B104" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C104" s="28"/>
+      <c r="D104" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E104" s="33"/>
+      <c r="F104" s="28"/>
       <c r="G104" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
-      <c r="M104" s="4"/>
+      <c r="M104" s="24"/>
       <c r="N104" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O104" s="3"/>
       <c r="P104" s="3"/>
@@ -4087,23 +4114,23 @@
       <c r="R104" s="4"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A105" s="33"/>
-      <c r="B105" s="26"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="35"/>
-      <c r="F105" s="27"/>
+      <c r="A105" s="36"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="38"/>
+      <c r="F105" s="30"/>
       <c r="G105" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
-      <c r="M105" s="7"/>
+      <c r="M105" s="25"/>
       <c r="N105" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O105" s="6"/>
       <c r="P105" s="6"/>
@@ -4111,21 +4138,21 @@
       <c r="R105" s="7"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A106" s="33"/>
-      <c r="B106" s="28"/>
-      <c r="C106" s="29"/>
-      <c r="D106" s="28"/>
-      <c r="E106" s="31"/>
-      <c r="F106" s="29"/>
+      <c r="A106" s="36"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="31"/>
+      <c r="E106" s="34"/>
+      <c r="F106" s="32"/>
       <c r="G106" s="8"/>
       <c r="H106" s="6"/>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c r="L106" s="9"/>
-      <c r="M106" s="10"/>
+      <c r="M106" s="26"/>
       <c r="N106" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O106" s="9"/>
       <c r="P106" s="9"/>
@@ -4133,23 +4160,23 @@
       <c r="R106" s="10"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A107" s="33"/>
-      <c r="B107" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="C107" s="25"/>
-      <c r="D107" s="24"/>
-      <c r="E107" s="30"/>
-      <c r="F107" s="25"/>
+      <c r="A107" s="36"/>
+      <c r="B107" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C107" s="28"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="33"/>
+      <c r="F107" s="28"/>
       <c r="G107" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
-      <c r="M107" s="4"/>
+      <c r="M107" s="24"/>
       <c r="N107" s="2"/>
       <c r="O107" s="3"/>
       <c r="P107" s="3"/>
@@ -4157,21 +4184,21 @@
       <c r="R107" s="4"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A108" s="33"/>
-      <c r="B108" s="26"/>
-      <c r="C108" s="27"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="35"/>
-      <c r="F108" s="27"/>
+      <c r="A108" s="36"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="30"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="38"/>
+      <c r="F108" s="30"/>
       <c r="G108" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H108" s="6"/>
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
-      <c r="M108" s="7"/>
+      <c r="M108" s="25"/>
       <c r="N108" s="5"/>
       <c r="O108" s="6"/>
       <c r="P108" s="6"/>
@@ -4179,21 +4206,21 @@
       <c r="R108" s="7"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A109" s="34"/>
-      <c r="B109" s="26"/>
-      <c r="C109" s="27"/>
-      <c r="D109" s="26"/>
-      <c r="E109" s="35"/>
-      <c r="F109" s="27"/>
+      <c r="A109" s="37"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="38"/>
+      <c r="F109" s="30"/>
       <c r="G109" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H109" s="6"/>
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
-      <c r="M109" s="7"/>
+      <c r="M109" s="25"/>
       <c r="N109" s="5"/>
       <c r="O109" s="6"/>
       <c r="P109" s="6"/>
@@ -4202,20 +4229,20 @@
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" s="11"/>
-      <c r="B110" s="26"/>
-      <c r="C110" s="27"/>
-      <c r="D110" s="26"/>
-      <c r="E110" s="35"/>
-      <c r="F110" s="27"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="38"/>
+      <c r="F110" s="30"/>
       <c r="G110" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H110" s="6"/>
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
-      <c r="M110" s="7"/>
+      <c r="M110" s="25"/>
       <c r="N110" s="5"/>
       <c r="O110" s="6"/>
       <c r="P110" s="6"/>
@@ -4224,20 +4251,20 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" s="11"/>
-      <c r="B111" s="26"/>
-      <c r="C111" s="27"/>
-      <c r="D111" s="26"/>
-      <c r="E111" s="35"/>
-      <c r="F111" s="27"/>
+      <c r="B111" s="29"/>
+      <c r="C111" s="30"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="38"/>
+      <c r="F111" s="30"/>
       <c r="G111" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H111" s="6"/>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
       <c r="L111" s="6"/>
-      <c r="M111" s="7"/>
+      <c r="M111" s="25"/>
       <c r="N111" s="5"/>
       <c r="O111" s="6"/>
       <c r="P111" s="6"/>
@@ -4245,20 +4272,20 @@
       <c r="R111" s="7"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B112" s="26"/>
-      <c r="C112" s="27"/>
-      <c r="D112" s="26"/>
-      <c r="E112" s="35"/>
-      <c r="F112" s="27"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="38"/>
+      <c r="F112" s="30"/>
       <c r="G112" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H112" s="6"/>
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
       <c r="L112" s="6"/>
-      <c r="M112" s="7"/>
+      <c r="M112" s="25"/>
       <c r="N112" s="5"/>
       <c r="O112" s="6"/>
       <c r="P112" s="6"/>
@@ -4266,22 +4293,22 @@
       <c r="R112" s="7"/>
     </row>
     <row r="113" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B113" s="28"/>
-      <c r="C113" s="29"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="31"/>
-      <c r="F113" s="29"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="32"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="34"/>
+      <c r="F113" s="32"/>
       <c r="G113" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H113" s="6"/>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c r="L113" s="9"/>
-      <c r="M113" s="10"/>
+      <c r="M113" s="26"/>
       <c r="N113" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O113" s="9"/>
       <c r="P113" s="9"/>
@@ -4289,22 +4316,22 @@
       <c r="R113" s="10"/>
     </row>
     <row r="114" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B114" s="24" t="s">
+      <c r="B114" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C114" s="28"/>
+      <c r="D114" s="27"/>
+      <c r="E114" s="33"/>
+      <c r="F114" s="28"/>
+      <c r="G114" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C114" s="25"/>
-      <c r="D114" s="24"/>
-      <c r="E114" s="30"/>
-      <c r="F114" s="25"/>
-      <c r="G114" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
-      <c r="M114" s="4"/>
+      <c r="M114" s="24"/>
       <c r="N114" s="2"/>
       <c r="O114" s="3"/>
       <c r="P114" s="3"/>
@@ -4312,22 +4339,22 @@
       <c r="R114" s="4"/>
     </row>
     <row r="115" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B115" s="26"/>
-      <c r="C115" s="27"/>
-      <c r="D115" s="26"/>
-      <c r="E115" s="35"/>
-      <c r="F115" s="27"/>
+      <c r="B115" s="29"/>
+      <c r="C115" s="30"/>
+      <c r="D115" s="29"/>
+      <c r="E115" s="38"/>
+      <c r="F115" s="30"/>
       <c r="G115" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H115" s="6"/>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
       <c r="L115" s="6"/>
-      <c r="M115" s="7"/>
+      <c r="M115" s="25"/>
       <c r="N115" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O115" s="6"/>
       <c r="P115" s="6"/>
@@ -4335,20 +4362,20 @@
       <c r="R115" s="7"/>
     </row>
     <row r="116" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B116" s="26"/>
-      <c r="C116" s="27"/>
-      <c r="D116" s="26"/>
-      <c r="E116" s="35"/>
-      <c r="F116" s="27"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="30"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="38"/>
+      <c r="F116" s="30"/>
       <c r="G116" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H116" s="6"/>
       <c r="I116" s="6"/>
       <c r="J116" s="6"/>
       <c r="K116" s="6"/>
       <c r="L116" s="6"/>
-      <c r="M116" s="7"/>
+      <c r="M116" s="25"/>
       <c r="N116" s="5"/>
       <c r="O116" s="6"/>
       <c r="P116" s="6"/>
@@ -4356,20 +4383,20 @@
       <c r="R116" s="7"/>
     </row>
     <row r="117" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B117" s="26"/>
-      <c r="C117" s="27"/>
-      <c r="D117" s="26"/>
-      <c r="E117" s="35"/>
-      <c r="F117" s="27"/>
+      <c r="B117" s="29"/>
+      <c r="C117" s="30"/>
+      <c r="D117" s="29"/>
+      <c r="E117" s="38"/>
+      <c r="F117" s="30"/>
       <c r="G117" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H117" s="6"/>
       <c r="I117" s="6"/>
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
-      <c r="M117" s="7"/>
+      <c r="M117" s="25"/>
       <c r="N117" s="5"/>
       <c r="O117" s="6"/>
       <c r="P117" s="6"/>
@@ -4377,20 +4404,20 @@
       <c r="R117" s="7"/>
     </row>
     <row r="118" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B118" s="28"/>
-      <c r="C118" s="29"/>
-      <c r="D118" s="28"/>
-      <c r="E118" s="31"/>
-      <c r="F118" s="29"/>
+      <c r="B118" s="31"/>
+      <c r="C118" s="32"/>
+      <c r="D118" s="31"/>
+      <c r="E118" s="34"/>
+      <c r="F118" s="32"/>
       <c r="G118" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H118" s="6"/>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c r="L118" s="9"/>
-      <c r="M118" s="10"/>
+      <c r="M118" s="26"/>
       <c r="N118" s="8"/>
       <c r="O118" s="9"/>
       <c r="P118" s="9"/>
@@ -4398,7 +4425,7 @@
       <c r="R118" s="10"/>
     </row>
     <row r="119" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="H119" s="23"/>
+      <c r="H119" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="58">
@@ -4435,11 +4462,6 @@
     <mergeCell ref="A2:A33"/>
     <mergeCell ref="B10:C18"/>
     <mergeCell ref="B19:C22"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="B2:C9"/>
     <mergeCell ref="N37:R41"/>
     <mergeCell ref="B64:C65"/>
     <mergeCell ref="B69:C70"/>
@@ -4447,11 +4469,11 @@
     <mergeCell ref="B72:C76"/>
     <mergeCell ref="B60:C63"/>
     <mergeCell ref="B56:C59"/>
-    <mergeCell ref="B50:C51"/>
-    <mergeCell ref="D50:F51"/>
-    <mergeCell ref="D45:F49"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B45:C49"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="B2:C9"/>
     <mergeCell ref="B53:C55"/>
     <mergeCell ref="B34:C36"/>
     <mergeCell ref="D34:F35"/>
@@ -4460,6 +4482,11 @@
     <mergeCell ref="B37:C41"/>
     <mergeCell ref="B77:C78"/>
     <mergeCell ref="B79:C80"/>
+    <mergeCell ref="B50:C51"/>
+    <mergeCell ref="D50:F51"/>
+    <mergeCell ref="D45:F49"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B45:C49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
